--- a/oats/testcases/case24_ieee_rts.xlsx
+++ b/oats/testcases/case24_ieee_rts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="1" state="visible" r:id="rId2"/>
@@ -1391,7 +1391,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="2:3"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2218,7 +2218,7 @@
   <dimension ref="A1:AL1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:3"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3124,10 +3124,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J24" activeCellId="1" sqref="2:3 J24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3143,7 +3143,14 @@
         <v>350</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3164,7 +3171,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B33" activeCellId="1" sqref="2:3 B33"/>
+      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3551,7 +3558,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="2:3 G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4972,7 +4979,7 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="2:3"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5334,8 +5341,8 @@
   </sheetPr>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="2:3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5405,7 +5412,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="2:3"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5466,7 +5473,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:3"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5511,7 +5518,7 @@
   <dimension ref="A1:Y34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:3"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8189,7 +8196,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="2:3 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/oats/testcases/case24_ieee_rts.xlsx
+++ b/oats/testcases/case24_ieee_rts.xlsx
@@ -1,26 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/waqquasbukhsh/oats/oats/testcases/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2627B3A-B7B1-8E43-8898-D0DD4C4491F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25240" windowHeight="16200" tabRatio="500" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="bus" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="demand" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="branch" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="transformer" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="wind" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="shunt" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="zonalNTC" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="generator" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="baseMVA" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="timeseries" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="zone" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="bus" sheetId="1" r:id="rId1"/>
+    <sheet name="demand" sheetId="2" r:id="rId2"/>
+    <sheet name="branch" sheetId="3" r:id="rId3"/>
+    <sheet name="transformer" sheetId="4" r:id="rId4"/>
+    <sheet name="wind" sheetId="5" r:id="rId5"/>
+    <sheet name="shunt" sheetId="6" r:id="rId6"/>
+    <sheet name="zonalNTC" sheetId="7" r:id="rId7"/>
+    <sheet name="generator" sheetId="8" r:id="rId8"/>
+    <sheet name="baseMVA" sheetId="9" r:id="rId9"/>
+    <sheet name="timeseries" sheetId="10" r:id="rId10"/>
+    <sheet name="zone" sheetId="11" r:id="rId11"/>
+    <sheet name="storage" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -30,1069 +36,1093 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="351">
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baseKV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VNLB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VNUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VELB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VEUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">busname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">real</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reactive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VOLL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">from_busname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to_busname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ShortTermRating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ContinousRating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">angLB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">angUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contingency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">probablity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-360</t>
-  </si>
-  <si>
-    <t xml:space="preserve">360</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L2-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L3-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L4-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L5-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L6-39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L7-49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L8-510</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L9-610</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L10-78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L11-89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L12-810</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L13-1113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L14-1114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L15-1213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L16-1223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L17-1323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L18-1416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L19-1516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L20-1521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L21-1521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L22-1524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L23-1617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L24-1619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L25-1718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L26-1722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L27-1821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L28-1821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L29-1920</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L30-1920</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L31-2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L32-2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L33-2122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PhaseShift</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TapRatio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TapLB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TapUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">probability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T1-324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2-911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T3-912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T4-1011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T5-1012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PGLB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PGUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QGLB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QGUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">failure_rate(1/yr)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">offer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interconnection_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">from_zone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to_zone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TransferCapacityTo(MW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TransferCapacityFr(MW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RampDown(MW/hr)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RampUp(MW/hr)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MinDownTime(hr)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MinUpTime(hr)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FuelType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">probabality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">startup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shutdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">costc2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">costc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">costc0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">400.6849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.014142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">212.3076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.052672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.6615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">781.521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.5804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">832.7575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.328412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.3852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.008342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">382.2391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuclear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">395.3749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">350</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.004895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">665.1094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baseMVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timeperiod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reserve(MW)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="360">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>baseKV</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>zone</t>
+  </si>
+  <si>
+    <t>VM</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>VNLB</t>
+  </si>
+  <si>
+    <t>VNUB</t>
+  </si>
+  <si>
+    <t>VELB</t>
+  </si>
+  <si>
+    <t>VEUB</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>busname</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>reactive</t>
+  </si>
+  <si>
+    <t>stat</t>
+  </si>
+  <si>
+    <t>VOLL</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>D15</t>
+  </si>
+  <si>
+    <t>317</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>D16</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>D18</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>D19</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>D20</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>from_busname</t>
+  </si>
+  <si>
+    <t>to_busname</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>ShortTermRating</t>
+  </si>
+  <si>
+    <t>ContinousRating</t>
+  </si>
+  <si>
+    <t>angLB</t>
+  </si>
+  <si>
+    <t>angUB</t>
+  </si>
+  <si>
+    <t>contingency</t>
+  </si>
+  <si>
+    <t>probablity</t>
+  </si>
+  <si>
+    <t>L1-12</t>
+  </si>
+  <si>
+    <t>0.0026</t>
+  </si>
+  <si>
+    <t>0.0139</t>
+  </si>
+  <si>
+    <t>0.4611</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>-360</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>L2-13</t>
+  </si>
+  <si>
+    <t>0.0546</t>
+  </si>
+  <si>
+    <t>0.2112</t>
+  </si>
+  <si>
+    <t>0.0572</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>L3-15</t>
+  </si>
+  <si>
+    <t>0.0218</t>
+  </si>
+  <si>
+    <t>0.0845</t>
+  </si>
+  <si>
+    <t>0.0229</t>
+  </si>
+  <si>
+    <t>L4-24</t>
+  </si>
+  <si>
+    <t>0.0328</t>
+  </si>
+  <si>
+    <t>0.1267</t>
+  </si>
+  <si>
+    <t>0.0343</t>
+  </si>
+  <si>
+    <t>L5-26</t>
+  </si>
+  <si>
+    <t>0.0497</t>
+  </si>
+  <si>
+    <t>0.192</t>
+  </si>
+  <si>
+    <t>0.052</t>
+  </si>
+  <si>
+    <t>L6-39</t>
+  </si>
+  <si>
+    <t>0.0308</t>
+  </si>
+  <si>
+    <t>0.119</t>
+  </si>
+  <si>
+    <t>0.0322</t>
+  </si>
+  <si>
+    <t>L7-49</t>
+  </si>
+  <si>
+    <t>0.0268</t>
+  </si>
+  <si>
+    <t>0.1037</t>
+  </si>
+  <si>
+    <t>0.0281</t>
+  </si>
+  <si>
+    <t>L8-510</t>
+  </si>
+  <si>
+    <t>0.0228</t>
+  </si>
+  <si>
+    <t>0.0883</t>
+  </si>
+  <si>
+    <t>0.0239</t>
+  </si>
+  <si>
+    <t>L9-610</t>
+  </si>
+  <si>
+    <t>0.0605</t>
+  </si>
+  <si>
+    <t>2.459</t>
+  </si>
+  <si>
+    <t>L10-78</t>
+  </si>
+  <si>
+    <t>0.0159</t>
+  </si>
+  <si>
+    <t>0.0614</t>
+  </si>
+  <si>
+    <t>0.0166</t>
+  </si>
+  <si>
+    <t>L11-89</t>
+  </si>
+  <si>
+    <t>0.0427</t>
+  </si>
+  <si>
+    <t>0.1651</t>
+  </si>
+  <si>
+    <t>0.0447</t>
+  </si>
+  <si>
+    <t>L12-810</t>
+  </si>
+  <si>
+    <t>L13-1113</t>
+  </si>
+  <si>
+    <t>0.0061</t>
+  </si>
+  <si>
+    <t>0.0476</t>
+  </si>
+  <si>
+    <t>0.0999</t>
+  </si>
+  <si>
+    <t>625</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>L14-1114</t>
+  </si>
+  <si>
+    <t>0.0054</t>
+  </si>
+  <si>
+    <t>0.0418</t>
+  </si>
+  <si>
+    <t>0.0879</t>
+  </si>
+  <si>
+    <t>L15-1213</t>
+  </si>
+  <si>
+    <t>L16-1223</t>
+  </si>
+  <si>
+    <t>0.0124</t>
+  </si>
+  <si>
+    <t>0.0966</t>
+  </si>
+  <si>
+    <t>0.203</t>
+  </si>
+  <si>
+    <t>L17-1323</t>
+  </si>
+  <si>
+    <t>0.0111</t>
+  </si>
+  <si>
+    <t>0.0865</t>
+  </si>
+  <si>
+    <t>0.1818</t>
+  </si>
+  <si>
+    <t>L18-1416</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
+    <t>0.0389</t>
+  </si>
+  <si>
+    <t>0.0818</t>
+  </si>
+  <si>
+    <t>L19-1516</t>
+  </si>
+  <si>
+    <t>0.0022</t>
+  </si>
+  <si>
+    <t>0.0173</t>
+  </si>
+  <si>
+    <t>0.0364</t>
+  </si>
+  <si>
+    <t>L20-1521</t>
+  </si>
+  <si>
+    <t>0.0063</t>
+  </si>
+  <si>
+    <t>0.049</t>
+  </si>
+  <si>
+    <t>0.103</t>
+  </si>
+  <si>
+    <t>L21-1521</t>
+  </si>
+  <si>
+    <t>L22-1524</t>
+  </si>
+  <si>
+    <t>0.0067</t>
+  </si>
+  <si>
+    <t>0.0519</t>
+  </si>
+  <si>
+    <t>0.1091</t>
+  </si>
+  <si>
+    <t>L23-1617</t>
+  </si>
+  <si>
+    <t>0.0033</t>
+  </si>
+  <si>
+    <t>0.0259</t>
+  </si>
+  <si>
+    <t>0.0545</t>
+  </si>
+  <si>
+    <t>L24-1619</t>
+  </si>
+  <si>
+    <t>0.003</t>
+  </si>
+  <si>
+    <t>0.0231</t>
+  </si>
+  <si>
+    <t>0.0485</t>
+  </si>
+  <si>
+    <t>L25-1718</t>
+  </si>
+  <si>
+    <t>0.0018</t>
+  </si>
+  <si>
+    <t>0.0144</t>
+  </si>
+  <si>
+    <t>0.0303</t>
+  </si>
+  <si>
+    <t>L26-1722</t>
+  </si>
+  <si>
+    <t>0.0135</t>
+  </si>
+  <si>
+    <t>0.1053</t>
+  </si>
+  <si>
+    <t>0.2212</t>
+  </si>
+  <si>
+    <t>L27-1821</t>
+  </si>
+  <si>
+    <t>L28-1821</t>
+  </si>
+  <si>
+    <t>L29-1920</t>
+  </si>
+  <si>
+    <t>0.0051</t>
+  </si>
+  <si>
+    <t>0.0396</t>
+  </si>
+  <si>
+    <t>0.0833</t>
+  </si>
+  <si>
+    <t>L30-1920</t>
+  </si>
+  <si>
+    <t>L31-2023</t>
+  </si>
+  <si>
+    <t>0.0028</t>
+  </si>
+  <si>
+    <t>0.0216</t>
+  </si>
+  <si>
+    <t>0.0455</t>
+  </si>
+  <si>
+    <t>L32-2023</t>
+  </si>
+  <si>
+    <t>L33-2122</t>
+  </si>
+  <si>
+    <t>0.0087</t>
+  </si>
+  <si>
+    <t>0.0678</t>
+  </si>
+  <si>
+    <t>0.1424</t>
+  </si>
+  <si>
+    <t>PhaseShift</t>
+  </si>
+  <si>
+    <t>TapRatio</t>
+  </si>
+  <si>
+    <t>TapLB</t>
+  </si>
+  <si>
+    <t>TapUB</t>
+  </si>
+  <si>
+    <t>probability</t>
+  </si>
+  <si>
+    <t>T1-324</t>
+  </si>
+  <si>
+    <t>0.0023</t>
+  </si>
+  <si>
+    <t>0.0839</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>1.03</t>
+  </si>
+  <si>
+    <t>0.9785</t>
+  </si>
+  <si>
+    <t>T2-911</t>
+  </si>
+  <si>
+    <t>T3-912</t>
+  </si>
+  <si>
+    <t>T4-1011</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>0.969</t>
+  </si>
+  <si>
+    <t>T5-1012</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>QG</t>
+  </si>
+  <si>
+    <t>PGLB</t>
+  </si>
+  <si>
+    <t>PGUB</t>
+  </si>
+  <si>
+    <t>QGLB</t>
+  </si>
+  <si>
+    <t>QGUB</t>
+  </si>
+  <si>
+    <t>VS</t>
+  </si>
+  <si>
+    <t>failure_rate(1/yr)</t>
+  </si>
+  <si>
+    <t>offer</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>interconnection_ID</t>
+  </si>
+  <si>
+    <t>from_zone</t>
+  </si>
+  <si>
+    <t>to_zone</t>
+  </si>
+  <si>
+    <t>TransferCapacityTo(MW)</t>
+  </si>
+  <si>
+    <t>TransferCapacityFr(MW)</t>
+  </si>
+  <si>
+    <t>RampDown(MW/hr)</t>
+  </si>
+  <si>
+    <t>RampUp(MW/hr)</t>
+  </si>
+  <si>
+    <t>MinDownTime(hr)</t>
+  </si>
+  <si>
+    <t>MinUpTime(hr)</t>
+  </si>
+  <si>
+    <t>FuelType</t>
+  </si>
+  <si>
+    <t>probabality</t>
+  </si>
+  <si>
+    <t>startup</t>
+  </si>
+  <si>
+    <t>shutdown</t>
+  </si>
+  <si>
+    <t>costc2</t>
+  </si>
+  <si>
+    <t>costc1</t>
+  </si>
+  <si>
+    <t>costc0</t>
+  </si>
+  <si>
+    <t>bid</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>1.035</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>400.6849</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>15.2</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>-25</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>0.014142</t>
+  </si>
+  <si>
+    <t>16.0811</t>
+  </si>
+  <si>
+    <t>212.3076</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>1.025</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>0.052672</t>
+  </si>
+  <si>
+    <t>43.6615</t>
+  </si>
+  <si>
+    <t>781.521</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>0.00717</t>
+  </si>
+  <si>
+    <t>48.5804</t>
+  </si>
+  <si>
+    <t>832.7575</t>
+  </si>
+  <si>
+    <t>G13</t>
+  </si>
+  <si>
+    <t>G14</t>
+  </si>
+  <si>
+    <t>G15</t>
+  </si>
+  <si>
+    <t>-50</t>
+  </si>
+  <si>
+    <t>0.98</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>G16</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>1.014</t>
+  </si>
+  <si>
+    <t>0.328412</t>
+  </si>
+  <si>
+    <t>56.564</t>
+  </si>
+  <si>
+    <t>86.3852</t>
+  </si>
+  <si>
+    <t>G17</t>
+  </si>
+  <si>
+    <t>G18</t>
+  </si>
+  <si>
+    <t>G19</t>
+  </si>
+  <si>
+    <t>G20</t>
+  </si>
+  <si>
+    <t>G21</t>
+  </si>
+  <si>
+    <t>54.3</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>0.008342</t>
+  </si>
+  <si>
+    <t>12.3883</t>
+  </si>
+  <si>
+    <t>382.2391</t>
+  </si>
+  <si>
+    <t>G22</t>
+  </si>
+  <si>
+    <t>1.017</t>
+  </si>
+  <si>
+    <t>G23</t>
+  </si>
+  <si>
+    <t>Nuclear</t>
+  </si>
+  <si>
+    <t>0.000213</t>
+  </si>
+  <si>
+    <t>4.4231</t>
+  </si>
+  <si>
+    <t>395.3749</t>
+  </si>
+  <si>
+    <t>G24</t>
+  </si>
+  <si>
+    <t>G25</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>-10</t>
+  </si>
+  <si>
+    <t>Hydro</t>
+  </si>
+  <si>
+    <t>0.001</t>
+  </si>
+  <si>
+    <t>G26</t>
+  </si>
+  <si>
+    <t>G27</t>
+  </si>
+  <si>
+    <t>G28</t>
+  </si>
+  <si>
+    <t>G29</t>
+  </si>
+  <si>
+    <t>G30</t>
+  </si>
+  <si>
+    <t>G31</t>
+  </si>
+  <si>
+    <t>G32</t>
+  </si>
+  <si>
+    <t>G33</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>0.004895</t>
+  </si>
+  <si>
+    <t>11.8495</t>
+  </si>
+  <si>
+    <t>665.1094</t>
+  </si>
+  <si>
+    <t>baseMVA</t>
+  </si>
+  <si>
+    <t>Demand</t>
+  </si>
+  <si>
+    <t>timeperiod</t>
+  </si>
+  <si>
+    <t>reserve(MW)</t>
+  </si>
+  <si>
+    <t>Minoperatingcapacity(MW)</t>
+  </si>
+  <si>
+    <t>capacity(MW)</t>
+  </si>
+  <si>
+    <t>chargingrate(MW/hr)</t>
+  </si>
+  <si>
+    <t>dischargingrate(MW/hr)</t>
+  </si>
+  <si>
+    <t>ChargingEfficieny(%)</t>
+  </si>
+  <si>
+    <t>DischargingEfficieny(%)</t>
+  </si>
+  <si>
+    <t>FinalStoredPower(MW)</t>
+  </si>
+  <si>
+    <t>PSH</t>
+  </si>
+  <si>
+    <t>InitialStoredPower(MW)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1101,27 +1131,25 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1133,273 +1161,567 @@
     </fill>
   </fills>
   <borders count="17">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="hair"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="hair"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="hair"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="25">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="23">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col min="1" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1431,20 +1753,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="n">
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="3">
         <v>1.05</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -1463,20 +1785,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" s="6" t="n">
+      <c r="C3" s="6">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="6">
         <v>1.05</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -1495,20 +1817,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6" t="n">
+      <c r="C4" s="6">
         <v>1</v>
       </c>
-      <c r="D4" s="6" t="n">
+      <c r="D4" s="6">
         <v>1</v>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="E4" s="6">
         <v>1.05</v>
       </c>
       <c r="F4" s="6" t="s">
@@ -1527,20 +1849,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="6" t="n">
+      <c r="C5" s="6">
         <v>1</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="D5" s="6">
         <v>1</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="6">
         <v>1.05</v>
       </c>
       <c r="F5" s="6" t="s">
@@ -1559,20 +1881,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6" t="n">
+      <c r="C6" s="6">
         <v>1</v>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="D6" s="6">
         <v>1</v>
       </c>
-      <c r="E6" s="6" t="n">
+      <c r="E6" s="6">
         <v>1.05</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -1591,20 +1913,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="C7" s="6">
         <v>1</v>
       </c>
-      <c r="D7" s="6" t="n">
+      <c r="D7" s="6">
         <v>1</v>
       </c>
-      <c r="E7" s="6" t="n">
+      <c r="E7" s="6">
         <v>1.05</v>
       </c>
       <c r="F7" s="6" t="s">
@@ -1623,20 +1945,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" s="6" t="n">
+      <c r="C8" s="6">
+        <v>2</v>
+      </c>
+      <c r="D8" s="6">
         <v>1</v>
       </c>
-      <c r="E8" s="6" t="n">
+      <c r="E8" s="6">
         <v>1.05</v>
       </c>
       <c r="F8" s="6" t="s">
@@ -1655,20 +1977,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="6" t="n">
+      <c r="C9" s="6">
         <v>1</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" s="6">
         <v>1</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="E9" s="6">
         <v>1.05</v>
       </c>
       <c r="F9" s="6" t="s">
@@ -1687,20 +2009,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="6" t="n">
+      <c r="C10" s="6">
         <v>1</v>
       </c>
-      <c r="D10" s="6" t="n">
+      <c r="D10" s="6">
         <v>1</v>
       </c>
-      <c r="E10" s="6" t="n">
+      <c r="E10" s="6">
         <v>1.05</v>
       </c>
       <c r="F10" s="6" t="s">
@@ -1719,20 +2041,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="6" t="n">
+      <c r="C11" s="6">
         <v>1</v>
       </c>
-      <c r="D11" s="6" t="n">
+      <c r="D11" s="6">
         <v>1</v>
       </c>
-      <c r="E11" s="6" t="n">
+      <c r="E11" s="6">
         <v>1.05</v>
       </c>
       <c r="F11" s="6" t="s">
@@ -1751,20 +2073,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="6" t="n">
+      <c r="C12" s="6">
         <v>1</v>
       </c>
-      <c r="D12" s="6" t="n">
+      <c r="D12" s="6">
         <v>1</v>
       </c>
-      <c r="E12" s="6" t="n">
+      <c r="E12" s="6">
         <v>1.05</v>
       </c>
       <c r="F12" s="6" t="s">
@@ -1783,20 +2105,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="6" t="n">
+      <c r="C13" s="6">
         <v>1</v>
       </c>
-      <c r="D13" s="6" t="n">
+      <c r="D13" s="6">
         <v>1</v>
       </c>
-      <c r="E13" s="6" t="n">
+      <c r="E13" s="6">
         <v>1.05</v>
       </c>
       <c r="F13" s="6" t="s">
@@ -1815,20 +2137,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="6" t="n">
+      <c r="C14" s="6">
         <v>3</v>
       </c>
-      <c r="D14" s="6" t="n">
+      <c r="D14" s="6">
         <v>1</v>
       </c>
-      <c r="E14" s="6" t="n">
+      <c r="E14" s="6">
         <v>1.05</v>
       </c>
       <c r="F14" s="6" t="s">
@@ -1847,20 +2169,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D15" s="6" t="n">
+      <c r="C15" s="6">
+        <v>2</v>
+      </c>
+      <c r="D15" s="6">
         <v>1</v>
       </c>
-      <c r="E15" s="6" t="n">
+      <c r="E15" s="6">
         <v>1.05</v>
       </c>
       <c r="F15" s="6" t="s">
@@ -1879,20 +2201,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D16" s="6" t="n">
+      <c r="C16" s="6">
+        <v>2</v>
+      </c>
+      <c r="D16" s="6">
         <v>1</v>
       </c>
-      <c r="E16" s="6" t="n">
+      <c r="E16" s="6">
         <v>1.05</v>
       </c>
       <c r="F16" s="6" t="s">
@@ -1911,20 +2233,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D17" s="6" t="n">
+      <c r="C17" s="6">
+        <v>2</v>
+      </c>
+      <c r="D17" s="6">
         <v>1</v>
       </c>
-      <c r="E17" s="6" t="n">
+      <c r="E17" s="6">
         <v>1.05</v>
       </c>
       <c r="F17" s="6" t="s">
@@ -1943,20 +2265,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="6" t="n">
+      <c r="C18" s="6">
         <v>1</v>
       </c>
-      <c r="D18" s="6" t="n">
+      <c r="D18" s="6">
         <v>1</v>
       </c>
-      <c r="E18" s="6" t="n">
+      <c r="E18" s="6">
         <v>1.05</v>
       </c>
       <c r="F18" s="6" t="s">
@@ -1975,20 +2297,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D19" s="6" t="n">
+      <c r="C19" s="6">
+        <v>2</v>
+      </c>
+      <c r="D19" s="6">
         <v>1</v>
       </c>
-      <c r="E19" s="6" t="n">
+      <c r="E19" s="6">
         <v>1.05</v>
       </c>
       <c r="F19" s="6" t="s">
@@ -2007,20 +2329,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="6" t="n">
+      <c r="C20" s="6">
         <v>1</v>
       </c>
-      <c r="D20" s="6" t="n">
+      <c r="D20" s="6">
         <v>1</v>
       </c>
-      <c r="E20" s="6" t="n">
+      <c r="E20" s="6">
         <v>1.05</v>
       </c>
       <c r="F20" s="6" t="s">
@@ -2039,20 +2361,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="6" t="n">
+      <c r="C21" s="6">
         <v>1</v>
       </c>
-      <c r="D21" s="6" t="n">
+      <c r="D21" s="6">
         <v>1</v>
       </c>
-      <c r="E21" s="6" t="n">
+      <c r="E21" s="6">
         <v>1.05</v>
       </c>
       <c r="F21" s="6" t="s">
@@ -2071,20 +2393,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D22" s="6" t="n">
+      <c r="C22" s="6">
+        <v>2</v>
+      </c>
+      <c r="D22" s="6">
         <v>1</v>
       </c>
-      <c r="E22" s="6" t="n">
+      <c r="E22" s="6">
         <v>1.05</v>
       </c>
       <c r="F22" s="6" t="s">
@@ -2103,20 +2425,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D23" s="6" t="n">
+      <c r="C23" s="6">
+        <v>2</v>
+      </c>
+      <c r="D23" s="6">
         <v>1</v>
       </c>
-      <c r="E23" s="6" t="n">
+      <c r="E23" s="6">
         <v>1.05</v>
       </c>
       <c r="F23" s="6" t="s">
@@ -2135,20 +2457,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D24" s="6" t="n">
+      <c r="C24" s="6">
+        <v>2</v>
+      </c>
+      <c r="D24" s="6">
         <v>1</v>
       </c>
-      <c r="E24" s="6" t="n">
+      <c r="E24" s="6">
         <v>1.05</v>
       </c>
       <c r="F24" s="6" t="s">
@@ -2167,20 +2489,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="9" t="n">
+      <c r="C25" s="9">
         <v>1</v>
       </c>
-      <c r="D25" s="9" t="n">
+      <c r="D25" s="9">
         <v>1</v>
       </c>
-      <c r="E25" s="6" t="n">
+      <c r="E25" s="6">
         <v>1.05</v>
       </c>
       <c r="F25" s="9" t="s">
@@ -2200,151 +2522,143 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AL1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:AL12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.6"/>
+    <col min="1" max="1025" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B1" s="24" t="s">
         <v>348</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="16"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
       <c r="AJ1" s="6"/>
       <c r="AK1" s="6"/>
       <c r="AL1" s="6"/>
     </row>
-    <row r="2" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:38" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="P2" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="Q2" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="R2" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="n">
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -2419,8 +2733,8 @@
       <c r="AK3" s="6"/>
       <c r="AL3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -2495,8 +2809,8 @@
       <c r="AK4" s="6"/>
       <c r="AL4" s="6"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -2571,8 +2885,8 @@
       <c r="AK5" s="6"/>
       <c r="AL5" s="6"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -2647,8 +2961,8 @@
       <c r="AK6" s="6"/>
       <c r="AL6" s="6"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="n">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -2723,8 +3037,8 @@
       <c r="AK7" s="6"/>
       <c r="AL7" s="6"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -2799,8 +3113,8 @@
       <c r="AK8" s="6"/>
       <c r="AL8" s="6"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="n">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -2875,8 +3189,8 @@
       <c r="AK9" s="6"/>
       <c r="AL9" s="6"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -2951,8 +3265,8 @@
       <c r="AK10" s="6"/>
       <c r="AL10" s="6"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="n">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -3027,8 +3341,8 @@
       <c r="AK11" s="6"/>
       <c r="AL11" s="6"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="n">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -3103,16 +3417,13 @@
       <c r="AK12" s="6"/>
       <c r="AL12" s="6"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:R1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -3120,66 +3431,154 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.13"/>
+    <col min="1" max="1025" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>20</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{985F0CD3-3E83-B141-A42F-FDCB2F81F258}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="B2" s="23">
+        <v>3</v>
+      </c>
+      <c r="C2" s="23">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23">
+        <v>3000</v>
+      </c>
+      <c r="F2" s="23">
+        <v>250</v>
+      </c>
+      <c r="G2" s="23">
+        <v>250</v>
+      </c>
+      <c r="H2" s="23">
+        <v>87</v>
+      </c>
+      <c r="I2" s="23">
+        <v>87</v>
+      </c>
+      <c r="J2" s="23">
+        <v>0</v>
+      </c>
+      <c r="K2" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col min="1" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3199,7 +3598,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>44</v>
       </c>
@@ -3215,11 +3614,11 @@
       <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F2" s="4">
         <v>7000</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>46</v>
       </c>
@@ -3235,11 +3634,11 @@
       <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="4">
         <v>7000</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>48</v>
       </c>
@@ -3255,11 +3654,11 @@
       <c r="E4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="4">
         <v>7000</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>51</v>
       </c>
@@ -3275,11 +3674,11 @@
       <c r="E5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="4">
         <v>7000</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>53</v>
       </c>
@@ -3295,11 +3694,11 @@
       <c r="E6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="4">
         <v>7000</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>55</v>
       </c>
@@ -3315,11 +3714,11 @@
       <c r="E7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="4">
         <v>7000</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>58</v>
       </c>
@@ -3335,11 +3734,11 @@
       <c r="E8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="4" t="n">
+      <c r="F8" s="4">
         <v>7000</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>61</v>
       </c>
@@ -3355,11 +3754,11 @@
       <c r="E9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="4" t="n">
+      <c r="F9" s="4">
         <v>7000</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>64</v>
       </c>
@@ -3375,11 +3774,11 @@
       <c r="E10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="4" t="n">
+      <c r="F10" s="4">
         <v>7000</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>67</v>
       </c>
@@ -3395,11 +3794,11 @@
       <c r="E11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="4" t="n">
+      <c r="F11" s="4">
         <v>7000</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>70</v>
       </c>
@@ -3415,11 +3814,11 @@
       <c r="E12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="4" t="n">
+      <c r="F12" s="4">
         <v>7000</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>73</v>
       </c>
@@ -3435,11 +3834,11 @@
       <c r="E13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="4" t="n">
+      <c r="F13" s="4">
         <v>7000</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>76</v>
       </c>
@@ -3455,11 +3854,11 @@
       <c r="E14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="4" t="n">
+      <c r="F14" s="4">
         <v>7000</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>79</v>
       </c>
@@ -3475,11 +3874,11 @@
       <c r="E15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="4" t="n">
+      <c r="F15" s="4">
         <v>7000</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>81</v>
       </c>
@@ -3495,11 +3894,11 @@
       <c r="E16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="4" t="n">
+      <c r="F16" s="4">
         <v>7000</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>84</v>
       </c>
@@ -3515,11 +3914,11 @@
       <c r="E17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="4" t="n">
+      <c r="F17" s="4">
         <v>7000</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>86</v>
       </c>
@@ -3535,38 +3934,30 @@
       <c r="E18" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="4" t="n">
+      <c r="F18" s="4">
         <v>7000</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col min="1" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3607,7 +3998,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>100</v>
       </c>
@@ -3641,14 +4032,14 @@
       <c r="K2" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="L2" s="3" t="n">
+      <c r="L2" s="3">
         <v>0</v>
       </c>
-      <c r="M2" s="4" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M2" s="4">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>107</v>
       </c>
@@ -3682,14 +4073,14 @@
       <c r="K3" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L3" s="6" t="n">
+      <c r="L3" s="6">
         <v>0</v>
       </c>
-      <c r="M3" s="7" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M3" s="7">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>112</v>
       </c>
@@ -3723,14 +4114,14 @@
       <c r="K4" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L4" s="6" t="n">
+      <c r="L4" s="6">
         <v>0</v>
       </c>
-      <c r="M4" s="7" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M4" s="7">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>116</v>
       </c>
@@ -3764,14 +4155,14 @@
       <c r="K5" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L5" s="6" t="n">
+      <c r="L5" s="6">
         <v>0</v>
       </c>
-      <c r="M5" s="4" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M5" s="4">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>120</v>
       </c>
@@ -3805,14 +4196,14 @@
       <c r="K6" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L6" s="6" t="n">
+      <c r="L6" s="6">
         <v>0</v>
       </c>
-      <c r="M6" s="7" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M6" s="7">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>124</v>
       </c>
@@ -3846,14 +4237,14 @@
       <c r="K7" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L7" s="6" t="n">
+      <c r="L7" s="6">
         <v>0</v>
       </c>
-      <c r="M7" s="7" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M7" s="7">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>128</v>
       </c>
@@ -3887,14 +4278,14 @@
       <c r="K8" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L8" s="6" t="n">
+      <c r="L8" s="6">
         <v>0</v>
       </c>
-      <c r="M8" s="4" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M8" s="4">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>132</v>
       </c>
@@ -3928,14 +4319,14 @@
       <c r="K9" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L9" s="6" t="n">
+      <c r="L9" s="6">
         <v>0</v>
       </c>
-      <c r="M9" s="7" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M9" s="7">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>136</v>
       </c>
@@ -3969,14 +4360,14 @@
       <c r="K10" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L10" s="6" t="n">
+      <c r="L10" s="6">
         <v>0</v>
       </c>
-      <c r="M10" s="7" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M10" s="7">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>139</v>
       </c>
@@ -4010,14 +4401,14 @@
       <c r="K11" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L11" s="6" t="n">
+      <c r="L11" s="6">
         <v>0</v>
       </c>
-      <c r="M11" s="4" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M11" s="4">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>143</v>
       </c>
@@ -4051,14 +4442,14 @@
       <c r="K12" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L12" s="6" t="n">
+      <c r="L12" s="6">
         <v>0</v>
       </c>
-      <c r="M12" s="7" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M12" s="7">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>147</v>
       </c>
@@ -4092,14 +4483,14 @@
       <c r="K13" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L13" s="6" t="n">
+      <c r="L13" s="6">
         <v>0</v>
       </c>
-      <c r="M13" s="7" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M13" s="7">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>148</v>
       </c>
@@ -4133,14 +4524,14 @@
       <c r="K14" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L14" s="6" t="n">
+      <c r="L14" s="6">
         <v>0</v>
       </c>
-      <c r="M14" s="4" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M14" s="4">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>154</v>
       </c>
@@ -4174,14 +4565,14 @@
       <c r="K15" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L15" s="6" t="n">
+      <c r="L15" s="6">
         <v>0</v>
       </c>
-      <c r="M15" s="7" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M15" s="7">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>158</v>
       </c>
@@ -4215,14 +4606,14 @@
       <c r="K16" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L16" s="6" t="n">
+      <c r="L16" s="6">
         <v>0</v>
       </c>
-      <c r="M16" s="7" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M16" s="7">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>159</v>
       </c>
@@ -4256,14 +4647,14 @@
       <c r="K17" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L17" s="6" t="n">
+      <c r="L17" s="6">
         <v>0</v>
       </c>
-      <c r="M17" s="4" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M17" s="4">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>163</v>
       </c>
@@ -4297,14 +4688,14 @@
       <c r="K18" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L18" s="6" t="n">
+      <c r="L18" s="6">
         <v>0</v>
       </c>
-      <c r="M18" s="7" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M18" s="7">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>167</v>
       </c>
@@ -4338,14 +4729,14 @@
       <c r="K19" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L19" s="6" t="n">
+      <c r="L19" s="6">
         <v>0</v>
       </c>
-      <c r="M19" s="7" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M19" s="7">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>171</v>
       </c>
@@ -4379,14 +4770,14 @@
       <c r="K20" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L20" s="6" t="n">
+      <c r="L20" s="6">
         <v>0</v>
       </c>
-      <c r="M20" s="4" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M20" s="4">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>175</v>
       </c>
@@ -4420,14 +4811,14 @@
       <c r="K21" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L21" s="6" t="n">
+      <c r="L21" s="6">
         <v>0</v>
       </c>
-      <c r="M21" s="7" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M21" s="7">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>179</v>
       </c>
@@ -4461,14 +4852,14 @@
       <c r="K22" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L22" s="6" t="n">
+      <c r="L22" s="6">
         <v>0</v>
       </c>
-      <c r="M22" s="7" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M22" s="7">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>180</v>
       </c>
@@ -4502,14 +4893,14 @@
       <c r="K23" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L23" s="6" t="n">
+      <c r="L23" s="6">
         <v>0</v>
       </c>
-      <c r="M23" s="4" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M23" s="4">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>184</v>
       </c>
@@ -4543,14 +4934,14 @@
       <c r="K24" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L24" s="6" t="n">
+      <c r="L24" s="6">
         <v>0</v>
       </c>
-      <c r="M24" s="7" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M24" s="7">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>188</v>
       </c>
@@ -4584,14 +4975,14 @@
       <c r="K25" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L25" s="6" t="n">
+      <c r="L25" s="6">
         <v>0</v>
       </c>
-      <c r="M25" s="7" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M25" s="7">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>192</v>
       </c>
@@ -4625,14 +5016,14 @@
       <c r="K26" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L26" s="6" t="n">
+      <c r="L26" s="6">
         <v>0</v>
       </c>
-      <c r="M26" s="4" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M26" s="4">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>196</v>
       </c>
@@ -4666,14 +5057,14 @@
       <c r="K27" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L27" s="6" t="n">
+      <c r="L27" s="6">
         <v>0</v>
       </c>
-      <c r="M27" s="7" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M27" s="7">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>200</v>
       </c>
@@ -4707,14 +5098,14 @@
       <c r="K28" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L28" s="6" t="n">
+      <c r="L28" s="6">
         <v>0</v>
       </c>
-      <c r="M28" s="7" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M28" s="7">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>201</v>
       </c>
@@ -4748,14 +5139,14 @@
       <c r="K29" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L29" s="6" t="n">
+      <c r="L29" s="6">
         <v>0</v>
       </c>
-      <c r="M29" s="4" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M29" s="4">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>202</v>
       </c>
@@ -4789,14 +5180,14 @@
       <c r="K30" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L30" s="6" t="n">
+      <c r="L30" s="6">
         <v>0</v>
       </c>
-      <c r="M30" s="7" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M30" s="7">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>206</v>
       </c>
@@ -4830,14 +5221,14 @@
       <c r="K31" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L31" s="6" t="n">
+      <c r="L31" s="6">
         <v>0</v>
       </c>
-      <c r="M31" s="7" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M31" s="7">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>207</v>
       </c>
@@ -4871,14 +5262,14 @@
       <c r="K32" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L32" s="6" t="n">
+      <c r="L32" s="6">
         <v>0</v>
       </c>
-      <c r="M32" s="4" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M32" s="4">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>211</v>
       </c>
@@ -4912,14 +5303,14 @@
       <c r="K33" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L33" s="6" t="n">
+      <c r="L33" s="6">
         <v>0</v>
       </c>
-      <c r="M33" s="7" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M33" s="7">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>212</v>
       </c>
@@ -4953,41 +5344,33 @@
       <c r="K34" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="L34" s="9" t="n">
+      <c r="L34" s="9">
         <v>0</v>
       </c>
-      <c r="M34" s="7" t="n">
-        <v>0.001</v>
+      <c r="M34" s="7">
+        <v>1E-3</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col min="1" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5043,7 +5426,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>221</v>
       </c>
@@ -5053,7 +5436,7 @@
       <c r="C2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="3">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -5065,7 +5448,7 @@
       <c r="G2" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="3">
         <v>0</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -5089,17 +5472,17 @@
       <c r="O2" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="P2" s="3" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Q2" s="3" t="n">
+      <c r="P2" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q2" s="3">
         <v>0</v>
       </c>
-      <c r="R2" s="12" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R2" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>228</v>
       </c>
@@ -5109,7 +5492,7 @@
       <c r="C3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="6" t="n">
+      <c r="D3" s="6">
         <v>1</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -5121,7 +5504,7 @@
       <c r="G3" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="H3" s="6" t="n">
+      <c r="H3" s="6">
         <v>0</v>
       </c>
       <c r="I3" s="6" t="s">
@@ -5145,17 +5528,17 @@
       <c r="O3" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="P3" s="6" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Q3" s="6" t="n">
+      <c r="P3" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q3" s="6">
         <v>0</v>
       </c>
-      <c r="R3" s="12" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R3" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>229</v>
       </c>
@@ -5165,7 +5548,7 @@
       <c r="C4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="6" t="n">
+      <c r="D4" s="6">
         <v>2</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -5177,7 +5560,7 @@
       <c r="G4" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="H4" s="6" t="n">
+      <c r="H4" s="6">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="s">
@@ -5201,17 +5584,17 @@
       <c r="O4" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="P4" s="6" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Q4" s="6" t="n">
+      <c r="P4" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q4" s="6">
         <v>0</v>
       </c>
-      <c r="R4" s="12" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R4" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>230</v>
       </c>
@@ -5221,7 +5604,7 @@
       <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="D5" s="6">
         <v>1</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -5233,7 +5616,7 @@
       <c r="G5" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="H5" s="6" t="n">
+      <c r="H5" s="6">
         <v>0</v>
       </c>
       <c r="I5" s="6" t="s">
@@ -5257,17 +5640,17 @@
       <c r="O5" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="P5" s="6" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Q5" s="6" t="n">
+      <c r="P5" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q5" s="6">
         <v>0</v>
       </c>
-      <c r="R5" s="12" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R5" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>233</v>
       </c>
@@ -5277,7 +5660,7 @@
       <c r="C6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="9" t="n">
+      <c r="D6" s="9">
         <v>2</v>
       </c>
       <c r="E6" s="9" t="s">
@@ -5289,7 +5672,7 @@
       <c r="G6" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="H6" s="9" t="n">
+      <c r="H6" s="9">
         <v>0</v>
       </c>
       <c r="I6" s="9" t="s">
@@ -5310,47 +5693,39 @@
       <c r="N6" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="O6" s="9" t="n">
+      <c r="O6" s="9">
         <v>1</v>
       </c>
-      <c r="P6" s="9" t="n">
+      <c r="P6" s="9">
         <v>1.02</v>
       </c>
-      <c r="Q6" s="9" t="n">
+      <c r="Q6" s="9">
         <v>0</v>
       </c>
-      <c r="R6" s="13" t="n">
-        <v>0.001</v>
+      <c r="R6" s="13">
+        <v>1E-3</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col min="1" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -5387,40 +5762,30 @@
       <c r="L1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col min="1" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -5437,51 +5802,43 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>245</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="0" t="n">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
         <v>-100</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col min="1" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>246</v>
       </c>
@@ -5498,35 +5855,26 @@
         <v>250</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Y34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col min="1" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -5596,2631 +5944,2616 @@
       <c r="W1" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="X1" t="s">
         <v>262</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="0" t="s">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>263</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" s="0" t="n">
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" s="0" t="n">
-        <f aca="false">0.5*(I2+J2)</f>
+      <c r="F2">
+        <f t="shared" ref="F2:F34" si="0">0.5*(I2+J2)</f>
         <v>5</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="0" t="s">
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" t="s">
         <v>264</v>
       </c>
-      <c r="L2" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P2" s="0" t="s">
+      <c r="L2">
+        <v>100</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
         <v>265</v>
       </c>
-      <c r="Q2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="S2" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T2" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="U2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="V2" s="0" t="s">
+      <c r="Q2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2">
+        <v>1E-3</v>
+      </c>
+      <c r="S2">
+        <v>100</v>
+      </c>
+      <c r="T2">
+        <v>100</v>
+      </c>
+      <c r="U2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" t="s">
         <v>266</v>
       </c>
-      <c r="W2" s="0" t="s">
+      <c r="W2" t="s">
         <v>267</v>
       </c>
-      <c r="X2" s="0" t="n">
+      <c r="X2">
         <v>40</v>
       </c>
-      <c r="Y2" s="0" t="n">
+      <c r="Y2">
         <v>80</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="0" t="s">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>268</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" s="0" t="n">
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
         <v>16</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <f aca="false">0.5*(I3+J3)</f>
+      <c r="F3">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="0" t="s">
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" t="s">
         <v>264</v>
       </c>
-      <c r="L3" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P3" s="0" t="s">
+      <c r="L3">
+        <v>100</v>
+      </c>
+      <c r="M3">
+        <v>100</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3" t="s">
         <v>265</v>
       </c>
-      <c r="Q3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="R3" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="S3" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T3" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="U3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="V3" s="0" t="s">
+      <c r="Q3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3">
+        <v>1E-3</v>
+      </c>
+      <c r="S3">
+        <v>100</v>
+      </c>
+      <c r="T3">
+        <v>100</v>
+      </c>
+      <c r="U3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V3" t="s">
         <v>266</v>
       </c>
-      <c r="W3" s="0" t="s">
+      <c r="W3" t="s">
         <v>267</v>
       </c>
-      <c r="X3" s="0" t="n">
+      <c r="X3">
         <v>40</v>
       </c>
-      <c r="Y3" s="0" t="n">
+      <c r="Y3">
         <v>80</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="0" t="s">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>269</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="0" t="n">
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
         <v>76</v>
       </c>
-      <c r="F4" s="0" t="n">
-        <f aca="false">0.5*(I4+J4)</f>
+      <c r="F4">
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" t="s">
         <v>270</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" t="s">
         <v>271</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" t="s">
         <v>272</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" t="s">
         <v>273</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="K4" t="s">
         <v>264</v>
       </c>
-      <c r="L4" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P4" s="0" t="s">
+      <c r="L4">
+        <v>100</v>
+      </c>
+      <c r="M4">
+        <v>100</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4" t="s">
         <v>265</v>
       </c>
-      <c r="Q4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="R4" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="S4" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T4" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="U4" s="0" t="s">
+      <c r="Q4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4">
+        <v>1E-3</v>
+      </c>
+      <c r="S4">
+        <v>100</v>
+      </c>
+      <c r="T4">
+        <v>100</v>
+      </c>
+      <c r="U4" t="s">
         <v>274</v>
       </c>
-      <c r="V4" s="0" t="s">
+      <c r="V4" t="s">
         <v>275</v>
       </c>
-      <c r="W4" s="0" t="s">
+      <c r="W4" t="s">
         <v>276</v>
       </c>
-      <c r="X4" s="0" t="n">
+      <c r="X4">
         <v>40</v>
       </c>
-      <c r="Y4" s="0" t="n">
+      <c r="Y4">
         <v>80</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="0" t="s">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>277</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" s="0" t="n">
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
         <v>76</v>
       </c>
-      <c r="F5" s="0" t="n">
-        <f aca="false">0.5*(I5+J5)</f>
+      <c r="F5">
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" t="s">
         <v>270</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" t="s">
         <v>271</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" t="s">
         <v>272</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" t="s">
         <v>273</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="K5" t="s">
         <v>264</v>
       </c>
-      <c r="L5" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" s="0" t="s">
+      <c r="L5">
+        <v>100</v>
+      </c>
+      <c r="M5">
+        <v>100</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5" t="s">
         <v>265</v>
       </c>
-      <c r="Q5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="R5" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="S5" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T5" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="U5" s="0" t="s">
+      <c r="Q5" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5">
+        <v>1E-3</v>
+      </c>
+      <c r="S5">
+        <v>100</v>
+      </c>
+      <c r="T5">
+        <v>100</v>
+      </c>
+      <c r="U5" t="s">
         <v>274</v>
       </c>
-      <c r="V5" s="0" t="s">
+      <c r="V5" t="s">
         <v>275</v>
       </c>
-      <c r="W5" s="0" t="s">
+      <c r="W5" t="s">
         <v>276</v>
       </c>
-      <c r="X5" s="0" t="n">
+      <c r="X5">
         <v>40</v>
       </c>
-      <c r="Y5" s="0" t="n">
+      <c r="Y5">
         <v>80</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>278</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" s="0" t="n">
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
         <v>16</v>
       </c>
-      <c r="F6" s="0" t="n">
-        <f aca="false">0.5*(I6+J6)</f>
+      <c r="F6">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="0" t="s">
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="K6" t="s">
         <v>264</v>
       </c>
-      <c r="L6" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" s="0" t="s">
+      <c r="L6">
+        <v>100</v>
+      </c>
+      <c r="M6">
+        <v>100</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6" t="s">
         <v>265</v>
       </c>
-      <c r="Q6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="R6" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="S6" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T6" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="U6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="V6" s="0" t="s">
+      <c r="Q6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6">
+        <v>1E-3</v>
+      </c>
+      <c r="S6">
+        <v>100</v>
+      </c>
+      <c r="T6">
+        <v>100</v>
+      </c>
+      <c r="U6" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" t="s">
         <v>266</v>
       </c>
-      <c r="W6" s="0" t="s">
+      <c r="W6" t="s">
         <v>267</v>
       </c>
-      <c r="X6" s="0" t="n">
+      <c r="X6">
         <v>40</v>
       </c>
-      <c r="Y6" s="0" t="n">
+      <c r="Y6">
         <v>80</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>279</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" s="0" t="n">
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
         <v>16</v>
       </c>
-      <c r="F7" s="0" t="n">
-        <f aca="false">0.5*(I7+J7)</f>
+      <c r="F7">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="0" t="s">
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="K7" t="s">
         <v>264</v>
       </c>
-      <c r="L7" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" s="0" t="s">
+      <c r="L7">
+        <v>100</v>
+      </c>
+      <c r="M7">
+        <v>100</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7" t="s">
         <v>265</v>
       </c>
-      <c r="Q7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="R7" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="S7" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T7" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="U7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="V7" s="0" t="s">
+      <c r="Q7" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7">
+        <v>1E-3</v>
+      </c>
+      <c r="S7">
+        <v>100</v>
+      </c>
+      <c r="T7">
+        <v>100</v>
+      </c>
+      <c r="U7" t="s">
+        <v>12</v>
+      </c>
+      <c r="V7" t="s">
         <v>266</v>
       </c>
-      <c r="W7" s="0" t="s">
+      <c r="W7" t="s">
         <v>267</v>
       </c>
-      <c r="X7" s="0" t="n">
+      <c r="X7">
         <v>40</v>
       </c>
-      <c r="Y7" s="0" t="n">
+      <c r="Y7">
         <v>80</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>280</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" s="0" t="n">
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
         <v>76</v>
       </c>
-      <c r="F8" s="0" t="n">
-        <f aca="false">0.5*(I8+J8)</f>
+      <c r="F8">
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" t="s">
         <v>270</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" t="s">
         <v>271</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" t="s">
         <v>272</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="J8" t="s">
         <v>273</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="K8" t="s">
         <v>264</v>
       </c>
-      <c r="L8" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" s="0" t="s">
+      <c r="L8">
+        <v>100</v>
+      </c>
+      <c r="M8">
+        <v>100</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8" t="s">
         <v>265</v>
       </c>
-      <c r="Q8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="R8" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="S8" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T8" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="U8" s="0" t="s">
+      <c r="Q8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8">
+        <v>1E-3</v>
+      </c>
+      <c r="S8">
+        <v>100</v>
+      </c>
+      <c r="T8">
+        <v>100</v>
+      </c>
+      <c r="U8" t="s">
         <v>274</v>
       </c>
-      <c r="V8" s="0" t="s">
+      <c r="V8" t="s">
         <v>275</v>
       </c>
-      <c r="W8" s="0" t="s">
+      <c r="W8" t="s">
         <v>276</v>
       </c>
-      <c r="X8" s="0" t="n">
+      <c r="X8">
         <v>40</v>
       </c>
-      <c r="Y8" s="0" t="n">
+      <c r="Y8">
         <v>80</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>281</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="0" t="n">
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>76</v>
       </c>
-      <c r="F9" s="0" t="n">
-        <f aca="false">0.5*(I9+J9)</f>
+      <c r="F9">
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" t="s">
         <v>270</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" t="s">
         <v>271</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="I9" t="s">
         <v>272</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="J9" t="s">
         <v>273</v>
       </c>
-      <c r="K9" s="0" t="s">
+      <c r="K9" t="s">
         <v>264</v>
       </c>
-      <c r="L9" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P9" s="0" t="s">
+      <c r="L9">
+        <v>100</v>
+      </c>
+      <c r="M9">
+        <v>100</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9" t="s">
         <v>265</v>
       </c>
-      <c r="Q9" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="R9" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="S9" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T9" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="U9" s="0" t="s">
+      <c r="Q9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9">
+        <v>1E-3</v>
+      </c>
+      <c r="S9">
+        <v>100</v>
+      </c>
+      <c r="T9">
+        <v>100</v>
+      </c>
+      <c r="U9" t="s">
         <v>274</v>
       </c>
-      <c r="V9" s="0" t="s">
+      <c r="V9" t="s">
         <v>275</v>
       </c>
-      <c r="W9" s="0" t="s">
+      <c r="W9" t="s">
         <v>276</v>
       </c>
-      <c r="X9" s="0" t="n">
+      <c r="X9">
         <v>40</v>
       </c>
-      <c r="Y9" s="0" t="n">
+      <c r="Y9">
         <v>80</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>282</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="0" t="n">
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" s="0" t="n">
-        <v>57.054</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <f aca="false">0.5*(I10+J10)</f>
+      <c r="E10">
+        <v>57.054000000000002</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" t="s">
         <v>80</v>
       </c>
-      <c r="I10" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="0" t="s">
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" t="s">
         <v>283</v>
       </c>
-      <c r="K10" s="0" t="s">
+      <c r="K10" t="s">
         <v>284</v>
       </c>
-      <c r="L10" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N10" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O10" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P10" s="0" t="s">
+      <c r="L10">
+        <v>100</v>
+      </c>
+      <c r="M10">
+        <v>100</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="P10" t="s">
         <v>285</v>
       </c>
-      <c r="Q10" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="R10" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="S10" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T10" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="U10" s="0" t="s">
+      <c r="Q10" t="s">
+        <v>12</v>
+      </c>
+      <c r="R10">
+        <v>1E-3</v>
+      </c>
+      <c r="S10">
+        <v>100</v>
+      </c>
+      <c r="T10">
+        <v>100</v>
+      </c>
+      <c r="U10" t="s">
         <v>286</v>
       </c>
-      <c r="V10" s="0" t="s">
+      <c r="V10" t="s">
         <v>287</v>
       </c>
-      <c r="W10" s="0" t="s">
+      <c r="W10" t="s">
         <v>288</v>
       </c>
-      <c r="X10" s="0" t="n">
+      <c r="X10">
         <v>40</v>
       </c>
-      <c r="Y10" s="0" t="n">
+      <c r="Y10">
         <v>80</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>289</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="0" t="n">
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" s="0" t="n">
-        <v>57.054</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <f aca="false">0.5*(I11+J11)</f>
+      <c r="E11">
+        <v>57.054000000000002</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" t="s">
         <v>80</v>
       </c>
-      <c r="I11" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="0" t="s">
+      <c r="I11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" t="s">
         <v>283</v>
       </c>
-      <c r="K11" s="0" t="s">
+      <c r="K11" t="s">
         <v>284</v>
       </c>
-      <c r="L11" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N11" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O11" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P11" s="0" t="s">
+      <c r="L11">
+        <v>100</v>
+      </c>
+      <c r="M11">
+        <v>100</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="P11" t="s">
         <v>285</v>
       </c>
-      <c r="Q11" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="R11" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="S11" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T11" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="U11" s="0" t="s">
+      <c r="Q11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R11">
+        <v>1E-3</v>
+      </c>
+      <c r="S11">
+        <v>100</v>
+      </c>
+      <c r="T11">
+        <v>100</v>
+      </c>
+      <c r="U11" t="s">
         <v>286</v>
       </c>
-      <c r="V11" s="0" t="s">
+      <c r="V11" t="s">
         <v>287</v>
       </c>
-      <c r="W11" s="0" t="s">
+      <c r="W11" t="s">
         <v>288</v>
       </c>
-      <c r="X11" s="0" t="n">
+      <c r="X11">
         <v>40</v>
       </c>
-      <c r="Y11" s="0" t="n">
+      <c r="Y11">
         <v>80</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>290</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="0" t="n">
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" s="0" t="n">
-        <v>57.054</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <f aca="false">0.5*(I12+J12)</f>
+      <c r="E12">
+        <v>57.054000000000002</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" t="s">
         <v>80</v>
       </c>
-      <c r="I12" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="0" t="s">
+      <c r="I12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" t="s">
         <v>283</v>
       </c>
-      <c r="K12" s="0" t="s">
+      <c r="K12" t="s">
         <v>284</v>
       </c>
-      <c r="L12" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N12" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O12" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P12" s="0" t="s">
+      <c r="L12">
+        <v>100</v>
+      </c>
+      <c r="M12">
+        <v>100</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="P12" t="s">
         <v>285</v>
       </c>
-      <c r="Q12" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="R12" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="S12" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T12" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="U12" s="0" t="s">
+      <c r="Q12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12">
+        <v>1E-3</v>
+      </c>
+      <c r="S12">
+        <v>100</v>
+      </c>
+      <c r="T12">
+        <v>100</v>
+      </c>
+      <c r="U12" t="s">
         <v>286</v>
       </c>
-      <c r="V12" s="0" t="s">
+      <c r="V12" t="s">
         <v>287</v>
       </c>
-      <c r="W12" s="0" t="s">
+      <c r="W12" t="s">
         <v>288</v>
       </c>
-      <c r="X12" s="0" t="n">
+      <c r="X12">
         <v>40</v>
       </c>
-      <c r="Y12" s="0" t="n">
+      <c r="Y12">
         <v>80</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>291</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="0" t="n">
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13">
         <v>3</v>
       </c>
-      <c r="E13" s="0" t="n">
-        <v>76.279</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <f aca="false">0.5*(I13+J13)</f>
+      <c r="E13">
+        <v>76.278999999999996</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" t="s">
         <v>292</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="H13" t="s">
         <v>293</v>
       </c>
-      <c r="I13" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="0" t="s">
+      <c r="I13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" t="s">
         <v>294</v>
       </c>
-      <c r="K13" s="0" t="s">
+      <c r="K13" t="s">
         <v>231</v>
       </c>
-      <c r="L13" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M13" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N13" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O13" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P13" s="0" t="s">
+      <c r="L13">
+        <v>100</v>
+      </c>
+      <c r="M13">
+        <v>100</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+      <c r="P13" t="s">
         <v>285</v>
       </c>
-      <c r="Q13" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="R13" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="S13" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T13" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="U13" s="0" t="s">
+      <c r="Q13" t="s">
+        <v>12</v>
+      </c>
+      <c r="R13">
+        <v>1E-3</v>
+      </c>
+      <c r="S13">
+        <v>100</v>
+      </c>
+      <c r="T13">
+        <v>100</v>
+      </c>
+      <c r="U13" t="s">
         <v>295</v>
       </c>
-      <c r="V13" s="0" t="s">
+      <c r="V13" t="s">
         <v>296</v>
       </c>
-      <c r="W13" s="0" t="s">
+      <c r="W13" t="s">
         <v>297</v>
       </c>
-      <c r="X13" s="0" t="n">
+      <c r="X13">
         <v>40</v>
       </c>
-      <c r="Y13" s="0" t="n">
+      <c r="Y13">
         <v>80</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>298</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="0" t="n">
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" s="0" t="n">
-        <v>76.279</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <f aca="false">0.5*(I14+J14)</f>
+      <c r="E14">
+        <v>76.278999999999996</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" t="s">
         <v>292</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="H14" t="s">
         <v>293</v>
       </c>
-      <c r="I14" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="0" t="s">
+      <c r="I14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" t="s">
         <v>294</v>
       </c>
-      <c r="K14" s="0" t="s">
+      <c r="K14" t="s">
         <v>231</v>
       </c>
-      <c r="L14" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M14" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N14" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O14" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P14" s="0" t="s">
+      <c r="L14">
+        <v>100</v>
+      </c>
+      <c r="M14">
+        <v>100</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="P14" t="s">
         <v>285</v>
       </c>
-      <c r="Q14" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="R14" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="S14" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T14" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="U14" s="0" t="s">
+      <c r="Q14" t="s">
+        <v>12</v>
+      </c>
+      <c r="R14">
+        <v>1E-3</v>
+      </c>
+      <c r="S14">
+        <v>100</v>
+      </c>
+      <c r="T14">
+        <v>100</v>
+      </c>
+      <c r="U14" t="s">
         <v>295</v>
       </c>
-      <c r="V14" s="0" t="s">
+      <c r="V14" t="s">
         <v>296</v>
       </c>
-      <c r="W14" s="0" t="s">
+      <c r="W14" t="s">
         <v>297</v>
       </c>
-      <c r="X14" s="0" t="n">
+      <c r="X14">
         <v>40</v>
       </c>
-      <c r="Y14" s="0" t="n">
+      <c r="Y14">
         <v>80</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>299</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="0" t="n">
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15" s="0" t="n">
-        <v>76.279</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <f aca="false">0.5*(I15+J15)</f>
+      <c r="E15">
+        <v>76.278999999999996</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" t="s">
         <v>292</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="H15" t="s">
         <v>293</v>
       </c>
-      <c r="I15" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="0" t="s">
+      <c r="I15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" t="s">
         <v>294</v>
       </c>
-      <c r="K15" s="0" t="s">
+      <c r="K15" t="s">
         <v>231</v>
       </c>
-      <c r="L15" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M15" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N15" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O15" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P15" s="0" t="s">
+      <c r="L15">
+        <v>100</v>
+      </c>
+      <c r="M15">
+        <v>100</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15" t="s">
         <v>285</v>
       </c>
-      <c r="Q15" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="R15" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="S15" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T15" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="U15" s="0" t="s">
+      <c r="Q15" t="s">
+        <v>12</v>
+      </c>
+      <c r="R15">
+        <v>1E-3</v>
+      </c>
+      <c r="S15">
+        <v>100</v>
+      </c>
+      <c r="T15">
+        <v>100</v>
+      </c>
+      <c r="U15" t="s">
         <v>295</v>
       </c>
-      <c r="V15" s="0" t="s">
+      <c r="V15" t="s">
         <v>296</v>
       </c>
-      <c r="W15" s="0" t="s">
+      <c r="W15" t="s">
         <v>297</v>
       </c>
-      <c r="X15" s="0" t="n">
+      <c r="X15">
         <v>40</v>
       </c>
-      <c r="Y15" s="0" t="n">
+      <c r="Y15">
         <v>80</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>300</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="0" t="n">
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16" s="0" t="n">
-        <f aca="false">0.5*(I16+J16)</f>
+      <c r="F16">
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="G16" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="0" t="s">
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" t="s">
         <v>301</v>
       </c>
-      <c r="J16" s="0" t="s">
+      <c r="J16" t="s">
         <v>104</v>
       </c>
-      <c r="K16" s="0" t="s">
+      <c r="K16" t="s">
         <v>302</v>
       </c>
-      <c r="L16" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M16" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N16" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O16" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P16" s="0" t="s">
+      <c r="L16">
+        <v>100</v>
+      </c>
+      <c r="M16">
+        <v>100</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="P16" t="s">
         <v>303</v>
       </c>
-      <c r="Q16" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="R16" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="S16" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T16" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="U16" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="V16" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="W16" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="X16" s="0" t="n">
+      <c r="Q16" t="s">
+        <v>12</v>
+      </c>
+      <c r="R16">
+        <v>1E-3</v>
+      </c>
+      <c r="S16">
+        <v>100</v>
+      </c>
+      <c r="T16">
+        <v>100</v>
+      </c>
+      <c r="U16" t="s">
+        <v>12</v>
+      </c>
+      <c r="V16" t="s">
+        <v>12</v>
+      </c>
+      <c r="W16" t="s">
+        <v>12</v>
+      </c>
+      <c r="X16">
         <v>40</v>
       </c>
-      <c r="Y16" s="0" t="n">
+      <c r="Y16">
         <v>80</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>304</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="0" t="n">
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17">
         <v>2.4</v>
       </c>
-      <c r="F17" s="0" t="n">
-        <f aca="false">0.5*(I17+J17)</f>
+      <c r="F17">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" t="s">
         <v>305</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="H17" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="0" t="s">
+      <c r="I17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="0" t="s">
+      <c r="K17" t="s">
         <v>306</v>
       </c>
-      <c r="L17" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M17" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N17" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O17" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P17" s="0" t="s">
+      <c r="L17">
+        <v>100</v>
+      </c>
+      <c r="M17">
+        <v>100</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17" t="s">
         <v>285</v>
       </c>
-      <c r="Q17" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="R17" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="S17" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T17" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="U17" s="0" t="s">
+      <c r="Q17" t="s">
+        <v>12</v>
+      </c>
+      <c r="R17">
+        <v>1E-3</v>
+      </c>
+      <c r="S17">
+        <v>100</v>
+      </c>
+      <c r="T17">
+        <v>100</v>
+      </c>
+      <c r="U17" t="s">
         <v>307</v>
       </c>
-      <c r="V17" s="0" t="s">
+      <c r="V17" t="s">
         <v>308</v>
       </c>
-      <c r="W17" s="0" t="s">
+      <c r="W17" t="s">
         <v>309</v>
       </c>
-      <c r="X17" s="0" t="n">
+      <c r="X17">
         <v>40</v>
       </c>
-      <c r="Y17" s="0" t="n">
+      <c r="Y17">
         <v>80</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>310</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="0" t="n">
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18">
         <v>2.4</v>
       </c>
-      <c r="F18" s="0" t="n">
-        <f aca="false">0.5*(I18+J18)</f>
+      <c r="F18">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="G18" t="s">
         <v>305</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="H18" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="0" t="s">
+      <c r="I18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="0" t="s">
+      <c r="K18" t="s">
         <v>306</v>
       </c>
-      <c r="L18" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M18" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N18" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O18" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P18" s="0" t="s">
+      <c r="L18">
+        <v>100</v>
+      </c>
+      <c r="M18">
+        <v>100</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18">
+        <v>2</v>
+      </c>
+      <c r="P18" t="s">
         <v>285</v>
       </c>
-      <c r="Q18" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="R18" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="S18" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T18" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="U18" s="0" t="s">
+      <c r="Q18" t="s">
+        <v>12</v>
+      </c>
+      <c r="R18">
+        <v>1E-3</v>
+      </c>
+      <c r="S18">
+        <v>100</v>
+      </c>
+      <c r="T18">
+        <v>100</v>
+      </c>
+      <c r="U18" t="s">
         <v>307</v>
       </c>
-      <c r="V18" s="0" t="s">
+      <c r="V18" t="s">
         <v>308</v>
       </c>
-      <c r="W18" s="0" t="s">
+      <c r="W18" t="s">
         <v>309</v>
       </c>
-      <c r="X18" s="0" t="n">
+      <c r="X18">
         <v>40</v>
       </c>
-      <c r="Y18" s="0" t="n">
+      <c r="Y18">
         <v>80</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>311</v>
       </c>
-      <c r="C19" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="0" t="n">
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19">
         <v>2.4</v>
       </c>
-      <c r="F19" s="0" t="n">
-        <f aca="false">0.5*(I19+J19)</f>
+      <c r="F19">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" t="s">
         <v>305</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="H19" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="0" t="s">
+      <c r="I19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" t="s">
         <v>19</v>
       </c>
-      <c r="K19" s="0" t="s">
+      <c r="K19" t="s">
         <v>306</v>
       </c>
-      <c r="L19" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M19" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P19" s="0" t="s">
+      <c r="L19">
+        <v>100</v>
+      </c>
+      <c r="M19">
+        <v>100</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
+      </c>
+      <c r="O19">
+        <v>2</v>
+      </c>
+      <c r="P19" t="s">
         <v>285</v>
       </c>
-      <c r="Q19" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="R19" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="S19" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T19" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="U19" s="0" t="s">
+      <c r="Q19" t="s">
+        <v>12</v>
+      </c>
+      <c r="R19">
+        <v>1E-3</v>
+      </c>
+      <c r="S19">
+        <v>100</v>
+      </c>
+      <c r="T19">
+        <v>100</v>
+      </c>
+      <c r="U19" t="s">
         <v>307</v>
       </c>
-      <c r="V19" s="0" t="s">
+      <c r="V19" t="s">
         <v>308</v>
       </c>
-      <c r="W19" s="0" t="s">
+      <c r="W19" t="s">
         <v>309</v>
       </c>
-      <c r="X19" s="0" t="n">
+      <c r="X19">
         <v>40</v>
       </c>
-      <c r="Y19" s="0" t="n">
+      <c r="Y19">
         <v>80</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>312</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="0" t="n">
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20">
         <v>2.4</v>
       </c>
-      <c r="F20" s="0" t="n">
-        <f aca="false">0.5*(I20+J20)</f>
+      <c r="F20">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="G20" t="s">
         <v>305</v>
       </c>
-      <c r="H20" s="0" t="s">
+      <c r="H20" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="0" t="s">
+      <c r="I20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="0" t="s">
+      <c r="K20" t="s">
         <v>306</v>
       </c>
-      <c r="L20" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M20" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N20" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O20" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P20" s="0" t="s">
+      <c r="L20">
+        <v>100</v>
+      </c>
+      <c r="M20">
+        <v>100</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+      <c r="O20">
+        <v>2</v>
+      </c>
+      <c r="P20" t="s">
         <v>285</v>
       </c>
-      <c r="Q20" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="R20" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="S20" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T20" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="U20" s="0" t="s">
+      <c r="Q20" t="s">
+        <v>12</v>
+      </c>
+      <c r="R20">
+        <v>1E-3</v>
+      </c>
+      <c r="S20">
+        <v>100</v>
+      </c>
+      <c r="T20">
+        <v>100</v>
+      </c>
+      <c r="U20" t="s">
         <v>307</v>
       </c>
-      <c r="V20" s="0" t="s">
+      <c r="V20" t="s">
         <v>308</v>
       </c>
-      <c r="W20" s="0" t="s">
+      <c r="W20" t="s">
         <v>309</v>
       </c>
-      <c r="X20" s="0" t="n">
+      <c r="X20">
         <v>40</v>
       </c>
-      <c r="Y20" s="0" t="n">
+      <c r="Y20">
         <v>80</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>313</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="0" t="n">
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21">
         <v>1</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21">
         <v>2.4</v>
       </c>
-      <c r="F21" s="0" t="n">
-        <f aca="false">0.5*(I21+J21)</f>
+      <c r="F21">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="G21" t="s">
         <v>305</v>
       </c>
-      <c r="H21" s="0" t="s">
+      <c r="H21" t="s">
         <v>26</v>
       </c>
-      <c r="I21" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="0" t="s">
+      <c r="I21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" t="s">
         <v>19</v>
       </c>
-      <c r="K21" s="0" t="s">
+      <c r="K21" t="s">
         <v>306</v>
       </c>
-      <c r="L21" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M21" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N21" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O21" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P21" s="0" t="s">
+      <c r="L21">
+        <v>100</v>
+      </c>
+      <c r="M21">
+        <v>100</v>
+      </c>
+      <c r="N21">
+        <v>2</v>
+      </c>
+      <c r="O21">
+        <v>2</v>
+      </c>
+      <c r="P21" t="s">
         <v>285</v>
       </c>
-      <c r="Q21" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="R21" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="S21" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T21" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="U21" s="0" t="s">
+      <c r="Q21" t="s">
+        <v>12</v>
+      </c>
+      <c r="R21">
+        <v>1E-3</v>
+      </c>
+      <c r="S21">
+        <v>100</v>
+      </c>
+      <c r="T21">
+        <v>100</v>
+      </c>
+      <c r="U21" t="s">
         <v>307</v>
       </c>
-      <c r="V21" s="0" t="s">
+      <c r="V21" t="s">
         <v>308</v>
       </c>
-      <c r="W21" s="0" t="s">
+      <c r="W21" t="s">
         <v>309</v>
       </c>
-      <c r="X21" s="0" t="n">
+      <c r="X21">
         <v>40</v>
       </c>
-      <c r="Y21" s="0" t="n">
+      <c r="Y21">
         <v>80</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>314</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="0" t="n">
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22">
         <v>155</v>
       </c>
-      <c r="F22" s="0" t="n">
-        <f aca="false">0.5*(I22+J22)</f>
+      <c r="F22">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="G22" t="s">
         <v>315</v>
       </c>
-      <c r="H22" s="0" t="s">
+      <c r="H22" t="s">
         <v>316</v>
       </c>
-      <c r="I22" s="0" t="s">
+      <c r="I22" t="s">
         <v>301</v>
       </c>
-      <c r="J22" s="0" t="s">
+      <c r="J22" t="s">
         <v>294</v>
       </c>
-      <c r="K22" s="0" t="s">
+      <c r="K22" t="s">
         <v>306</v>
       </c>
-      <c r="L22" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M22" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N22" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O22" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P22" s="0" t="s">
+      <c r="L22">
+        <v>100</v>
+      </c>
+      <c r="M22">
+        <v>100</v>
+      </c>
+      <c r="N22">
+        <v>2</v>
+      </c>
+      <c r="O22">
+        <v>2</v>
+      </c>
+      <c r="P22" t="s">
         <v>285</v>
       </c>
-      <c r="Q22" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="R22" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="S22" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T22" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="U22" s="0" t="s">
+      <c r="Q22" t="s">
+        <v>12</v>
+      </c>
+      <c r="R22">
+        <v>1E-3</v>
+      </c>
+      <c r="S22">
+        <v>100</v>
+      </c>
+      <c r="T22">
+        <v>100</v>
+      </c>
+      <c r="U22" t="s">
         <v>317</v>
       </c>
-      <c r="V22" s="0" t="s">
+      <c r="V22" t="s">
         <v>318</v>
       </c>
-      <c r="W22" s="0" t="s">
+      <c r="W22" t="s">
         <v>319</v>
       </c>
-      <c r="X22" s="0" t="n">
+      <c r="X22">
         <v>40</v>
       </c>
-      <c r="Y22" s="0" t="n">
+      <c r="Y22">
         <v>80</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>320</v>
       </c>
-      <c r="C23" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="0" t="n">
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23">
         <v>155</v>
       </c>
-      <c r="F23" s="0" t="n">
-        <f aca="false">0.5*(I23+J23)</f>
+      <c r="F23">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="G23" t="s">
         <v>315</v>
       </c>
-      <c r="H23" s="0" t="s">
+      <c r="H23" t="s">
         <v>316</v>
       </c>
-      <c r="I23" s="0" t="s">
+      <c r="I23" t="s">
         <v>301</v>
       </c>
-      <c r="J23" s="0" t="s">
+      <c r="J23" t="s">
         <v>294</v>
       </c>
-      <c r="K23" s="0" t="s">
+      <c r="K23" t="s">
         <v>321</v>
       </c>
-      <c r="L23" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M23" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N23" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O23" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P23" s="0" t="s">
+      <c r="L23">
+        <v>100</v>
+      </c>
+      <c r="M23">
+        <v>100</v>
+      </c>
+      <c r="N23">
+        <v>2</v>
+      </c>
+      <c r="O23">
+        <v>2</v>
+      </c>
+      <c r="P23" t="s">
         <v>265</v>
       </c>
-      <c r="Q23" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="R23" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="S23" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T23" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="U23" s="0" t="s">
+      <c r="Q23" t="s">
+        <v>12</v>
+      </c>
+      <c r="R23">
+        <v>1E-3</v>
+      </c>
+      <c r="S23">
+        <v>100</v>
+      </c>
+      <c r="T23">
+        <v>100</v>
+      </c>
+      <c r="U23" t="s">
         <v>317</v>
       </c>
-      <c r="V23" s="0" t="s">
+      <c r="V23" t="s">
         <v>318</v>
       </c>
-      <c r="W23" s="0" t="s">
+      <c r="W23" t="s">
         <v>319</v>
       </c>
-      <c r="X23" s="0" t="n">
+      <c r="X23">
         <v>40</v>
       </c>
-      <c r="Y23" s="0" t="n">
+      <c r="Y23">
         <v>80</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>322</v>
       </c>
-      <c r="C24" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="0" t="n">
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24">
         <v>400</v>
       </c>
-      <c r="F24" s="0" t="n">
-        <f aca="false">0.5*(I24+J24)</f>
+      <c r="F24">
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="G24" t="s">
         <v>80</v>
       </c>
-      <c r="H24" s="0" t="s">
+      <c r="H24" t="s">
         <v>225</v>
       </c>
-      <c r="I24" s="0" t="s">
+      <c r="I24" t="s">
         <v>301</v>
       </c>
-      <c r="J24" s="0" t="s">
+      <c r="J24" t="s">
         <v>104</v>
       </c>
-      <c r="K24" s="0" t="s">
+      <c r="K24" t="s">
         <v>14</v>
       </c>
-      <c r="L24" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M24" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N24" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O24" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P24" s="0" t="s">
+      <c r="L24">
+        <v>100</v>
+      </c>
+      <c r="M24">
+        <v>100</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="O24">
+        <v>2</v>
+      </c>
+      <c r="P24" t="s">
         <v>323</v>
       </c>
-      <c r="Q24" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="R24" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="S24" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T24" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="U24" s="0" t="s">
+      <c r="Q24" t="s">
+        <v>12</v>
+      </c>
+      <c r="R24">
+        <v>1E-3</v>
+      </c>
+      <c r="S24">
+        <v>100</v>
+      </c>
+      <c r="T24">
+        <v>100</v>
+      </c>
+      <c r="U24" t="s">
         <v>324</v>
       </c>
-      <c r="V24" s="0" t="s">
+      <c r="V24" t="s">
         <v>325</v>
       </c>
-      <c r="W24" s="0" t="s">
+      <c r="W24" t="s">
         <v>326</v>
       </c>
-      <c r="X24" s="0" t="n">
+      <c r="X24">
         <v>40</v>
       </c>
-      <c r="Y24" s="0" t="n">
+      <c r="Y24">
         <v>80</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>327</v>
       </c>
-      <c r="C25" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="0" t="n">
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25">
         <v>400</v>
       </c>
-      <c r="F25" s="0" t="n">
-        <f aca="false">0.5*(I25+J25)</f>
+      <c r="F25">
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="G25" t="s">
         <v>80</v>
       </c>
-      <c r="H25" s="0" t="s">
+      <c r="H25" t="s">
         <v>225</v>
       </c>
-      <c r="I25" s="0" t="s">
+      <c r="I25" t="s">
         <v>301</v>
       </c>
-      <c r="J25" s="0" t="s">
+      <c r="J25" t="s">
         <v>104</v>
       </c>
-      <c r="K25" s="0" t="s">
+      <c r="K25" t="s">
         <v>14</v>
       </c>
-      <c r="L25" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M25" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N25" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O25" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P25" s="0" t="s">
+      <c r="L25">
+        <v>100</v>
+      </c>
+      <c r="M25">
+        <v>100</v>
+      </c>
+      <c r="N25">
+        <v>2</v>
+      </c>
+      <c r="O25">
+        <v>2</v>
+      </c>
+      <c r="P25" t="s">
         <v>323</v>
       </c>
-      <c r="Q25" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="R25" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="S25" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T25" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="U25" s="0" t="s">
+      <c r="Q25" t="s">
+        <v>12</v>
+      </c>
+      <c r="R25">
+        <v>1E-3</v>
+      </c>
+      <c r="S25">
+        <v>100</v>
+      </c>
+      <c r="T25">
+        <v>100</v>
+      </c>
+      <c r="U25" t="s">
         <v>324</v>
       </c>
-      <c r="V25" s="0" t="s">
+      <c r="V25" t="s">
         <v>325</v>
       </c>
-      <c r="W25" s="0" t="s">
+      <c r="W25" t="s">
         <v>326</v>
       </c>
-      <c r="X25" s="0" t="n">
+      <c r="X25">
         <v>40</v>
       </c>
-      <c r="Y25" s="0" t="n">
+      <c r="Y25">
         <v>80</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>328</v>
       </c>
-      <c r="C26" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="0" t="n">
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26">
         <v>50</v>
       </c>
-      <c r="F26" s="0" t="n">
-        <f aca="false">0.5*(I26+J26)</f>
+      <c r="F26">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G26" s="0" t="s">
+      <c r="G26" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="0" t="s">
+      <c r="H26" t="s">
         <v>329</v>
       </c>
-      <c r="I26" s="0" t="s">
+      <c r="I26" t="s">
         <v>330</v>
       </c>
-      <c r="J26" s="0" t="s">
+      <c r="J26" t="s">
         <v>30</v>
       </c>
-      <c r="K26" s="0" t="s">
+      <c r="K26" t="s">
         <v>14</v>
       </c>
-      <c r="L26" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M26" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N26" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O26" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P26" s="0" t="s">
+      <c r="L26">
+        <v>100</v>
+      </c>
+      <c r="M26">
+        <v>100</v>
+      </c>
+      <c r="N26">
+        <v>2</v>
+      </c>
+      <c r="O26">
+        <v>2</v>
+      </c>
+      <c r="P26" t="s">
         <v>331</v>
       </c>
-      <c r="Q26" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="R26" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="S26" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T26" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="U26" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="V26" s="0" t="s">
+      <c r="Q26" t="s">
+        <v>12</v>
+      </c>
+      <c r="R26">
+        <v>1E-3</v>
+      </c>
+      <c r="S26">
+        <v>100</v>
+      </c>
+      <c r="T26">
+        <v>100</v>
+      </c>
+      <c r="U26" t="s">
+        <v>12</v>
+      </c>
+      <c r="V26" t="s">
         <v>332</v>
       </c>
-      <c r="W26" s="0" t="s">
+      <c r="W26" t="s">
         <v>332</v>
       </c>
-      <c r="X26" s="0" t="n">
+      <c r="X26">
         <v>40</v>
       </c>
-      <c r="Y26" s="0" t="n">
+      <c r="Y26">
         <v>80</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>333</v>
       </c>
-      <c r="C27" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="0" t="n">
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27">
         <v>50</v>
       </c>
-      <c r="F27" s="0" t="n">
-        <f aca="false">0.5*(I27+J27)</f>
+      <c r="F27">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="G27" t="s">
         <v>23</v>
       </c>
-      <c r="H27" s="0" t="s">
+      <c r="H27" t="s">
         <v>329</v>
       </c>
-      <c r="I27" s="0" t="s">
+      <c r="I27" t="s">
         <v>330</v>
       </c>
-      <c r="J27" s="0" t="s">
+      <c r="J27" t="s">
         <v>30</v>
       </c>
-      <c r="K27" s="0" t="s">
+      <c r="K27" t="s">
         <v>14</v>
       </c>
-      <c r="L27" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M27" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N27" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O27" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P27" s="0" t="s">
+      <c r="L27">
+        <v>100</v>
+      </c>
+      <c r="M27">
+        <v>100</v>
+      </c>
+      <c r="N27">
+        <v>2</v>
+      </c>
+      <c r="O27">
+        <v>2</v>
+      </c>
+      <c r="P27" t="s">
         <v>331</v>
       </c>
-      <c r="Q27" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="R27" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="S27" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T27" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="U27" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="V27" s="0" t="s">
+      <c r="Q27" t="s">
+        <v>12</v>
+      </c>
+      <c r="R27">
+        <v>1E-3</v>
+      </c>
+      <c r="S27">
+        <v>100</v>
+      </c>
+      <c r="T27">
+        <v>100</v>
+      </c>
+      <c r="U27" t="s">
+        <v>12</v>
+      </c>
+      <c r="V27" t="s">
         <v>332</v>
       </c>
-      <c r="W27" s="0" t="s">
+      <c r="W27" t="s">
         <v>332</v>
       </c>
-      <c r="X27" s="0" t="n">
+      <c r="X27">
         <v>40</v>
       </c>
-      <c r="Y27" s="0" t="n">
+      <c r="Y27">
         <v>80</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>334</v>
       </c>
-      <c r="C28" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="0" t="n">
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28">
         <v>1</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28">
         <v>50</v>
       </c>
-      <c r="F28" s="0" t="n">
-        <f aca="false">0.5*(I28+J28)</f>
+      <c r="F28">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G28" s="0" t="s">
+      <c r="G28" t="s">
         <v>23</v>
       </c>
-      <c r="H28" s="0" t="s">
+      <c r="H28" t="s">
         <v>329</v>
       </c>
-      <c r="I28" s="0" t="s">
+      <c r="I28" t="s">
         <v>330</v>
       </c>
-      <c r="J28" s="0" t="s">
+      <c r="J28" t="s">
         <v>30</v>
       </c>
-      <c r="K28" s="0" t="s">
+      <c r="K28" t="s">
         <v>14</v>
       </c>
-      <c r="L28" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M28" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N28" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O28" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P28" s="0" t="s">
+      <c r="L28">
+        <v>100</v>
+      </c>
+      <c r="M28">
+        <v>100</v>
+      </c>
+      <c r="N28">
+        <v>2</v>
+      </c>
+      <c r="O28">
+        <v>2</v>
+      </c>
+      <c r="P28" t="s">
         <v>331</v>
       </c>
-      <c r="Q28" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="R28" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="S28" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T28" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="U28" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="V28" s="0" t="s">
+      <c r="Q28" t="s">
+        <v>12</v>
+      </c>
+      <c r="R28">
+        <v>1E-3</v>
+      </c>
+      <c r="S28">
+        <v>100</v>
+      </c>
+      <c r="T28">
+        <v>100</v>
+      </c>
+      <c r="U28" t="s">
+        <v>12</v>
+      </c>
+      <c r="V28" t="s">
         <v>332</v>
       </c>
-      <c r="W28" s="0" t="s">
+      <c r="W28" t="s">
         <v>332</v>
       </c>
-      <c r="X28" s="0" t="n">
+      <c r="X28">
         <v>40</v>
       </c>
-      <c r="Y28" s="0" t="n">
+      <c r="Y28">
         <v>80</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>335</v>
       </c>
-      <c r="C29" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="0" t="n">
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29">
         <v>1</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29">
         <v>50</v>
       </c>
-      <c r="F29" s="0" t="n">
-        <f aca="false">0.5*(I29+J29)</f>
+      <c r="F29">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G29" s="0" t="s">
+      <c r="G29" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="0" t="s">
+      <c r="H29" t="s">
         <v>329</v>
       </c>
-      <c r="I29" s="0" t="s">
+      <c r="I29" t="s">
         <v>330</v>
       </c>
-      <c r="J29" s="0" t="s">
+      <c r="J29" t="s">
         <v>30</v>
       </c>
-      <c r="K29" s="0" t="s">
+      <c r="K29" t="s">
         <v>14</v>
       </c>
-      <c r="L29" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M29" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N29" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O29" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P29" s="0" t="s">
+      <c r="L29">
+        <v>100</v>
+      </c>
+      <c r="M29">
+        <v>100</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="O29">
+        <v>2</v>
+      </c>
+      <c r="P29" t="s">
         <v>331</v>
       </c>
-      <c r="Q29" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="R29" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="S29" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T29" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="U29" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="V29" s="0" t="s">
+      <c r="Q29" t="s">
+        <v>12</v>
+      </c>
+      <c r="R29">
+        <v>1E-3</v>
+      </c>
+      <c r="S29">
+        <v>100</v>
+      </c>
+      <c r="T29">
+        <v>100</v>
+      </c>
+      <c r="U29" t="s">
+        <v>12</v>
+      </c>
+      <c r="V29" t="s">
         <v>332</v>
       </c>
-      <c r="W29" s="0" t="s">
+      <c r="W29" t="s">
         <v>332</v>
       </c>
-      <c r="X29" s="0" t="n">
+      <c r="X29">
         <v>40</v>
       </c>
-      <c r="Y29" s="0" t="n">
+      <c r="Y29">
         <v>80</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>336</v>
       </c>
-      <c r="C30" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="0" t="n">
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30">
         <v>1</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30">
         <v>50</v>
       </c>
-      <c r="F30" s="0" t="n">
-        <f aca="false">0.5*(I30+J30)</f>
+      <c r="F30">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G30" s="0" t="s">
+      <c r="G30" t="s">
         <v>23</v>
       </c>
-      <c r="H30" s="0" t="s">
+      <c r="H30" t="s">
         <v>329</v>
       </c>
-      <c r="I30" s="0" t="s">
+      <c r="I30" t="s">
         <v>330</v>
       </c>
-      <c r="J30" s="0" t="s">
+      <c r="J30" t="s">
         <v>30</v>
       </c>
-      <c r="K30" s="0" t="s">
+      <c r="K30" t="s">
         <v>14</v>
       </c>
-      <c r="L30" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M30" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N30" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O30" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P30" s="0" t="s">
+      <c r="L30">
+        <v>100</v>
+      </c>
+      <c r="M30">
+        <v>100</v>
+      </c>
+      <c r="N30">
+        <v>2</v>
+      </c>
+      <c r="O30">
+        <v>2</v>
+      </c>
+      <c r="P30" t="s">
         <v>331</v>
       </c>
-      <c r="Q30" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="R30" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="S30" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T30" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="U30" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="V30" s="0" t="s">
+      <c r="Q30" t="s">
+        <v>12</v>
+      </c>
+      <c r="R30">
+        <v>1E-3</v>
+      </c>
+      <c r="S30">
+        <v>100</v>
+      </c>
+      <c r="T30">
+        <v>100</v>
+      </c>
+      <c r="U30" t="s">
+        <v>12</v>
+      </c>
+      <c r="V30" t="s">
         <v>332</v>
       </c>
-      <c r="W30" s="0" t="s">
+      <c r="W30" t="s">
         <v>332</v>
       </c>
-      <c r="X30" s="0" t="n">
+      <c r="X30">
         <v>40</v>
       </c>
-      <c r="Y30" s="0" t="n">
+      <c r="Y30">
         <v>80</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>337</v>
       </c>
-      <c r="C31" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="0" t="n">
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31">
         <v>50</v>
       </c>
-      <c r="F31" s="0" t="n">
-        <f aca="false">0.5*(I31+J31)</f>
+      <c r="F31">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G31" s="0" t="s">
+      <c r="G31" t="s">
         <v>23</v>
       </c>
-      <c r="H31" s="0" t="s">
+      <c r="H31" t="s">
         <v>329</v>
       </c>
-      <c r="I31" s="0" t="s">
+      <c r="I31" t="s">
         <v>330</v>
       </c>
-      <c r="J31" s="0" t="s">
+      <c r="J31" t="s">
         <v>30</v>
       </c>
-      <c r="K31" s="0" t="s">
+      <c r="K31" t="s">
         <v>14</v>
       </c>
-      <c r="L31" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M31" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N31" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O31" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P31" s="0" t="s">
+      <c r="L31">
+        <v>100</v>
+      </c>
+      <c r="M31">
+        <v>100</v>
+      </c>
+      <c r="N31">
+        <v>2</v>
+      </c>
+      <c r="O31">
+        <v>2</v>
+      </c>
+      <c r="P31" t="s">
         <v>331</v>
       </c>
-      <c r="Q31" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="R31" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="S31" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T31" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="U31" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="V31" s="0" t="s">
+      <c r="Q31" t="s">
+        <v>12</v>
+      </c>
+      <c r="R31">
+        <v>1E-3</v>
+      </c>
+      <c r="S31">
+        <v>100</v>
+      </c>
+      <c r="T31">
+        <v>100</v>
+      </c>
+      <c r="U31" t="s">
+        <v>12</v>
+      </c>
+      <c r="V31" t="s">
         <v>332</v>
       </c>
-      <c r="W31" s="0" t="s">
+      <c r="W31" t="s">
         <v>332</v>
       </c>
-      <c r="X31" s="0" t="n">
+      <c r="X31">
         <v>40</v>
       </c>
-      <c r="Y31" s="0" t="n">
+      <c r="Y31">
         <v>80</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>338</v>
       </c>
-      <c r="C32" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="0" t="n">
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32">
         <v>1</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32">
         <v>155</v>
       </c>
-      <c r="F32" s="0" t="n">
-        <f aca="false">0.5*(I32+J32)</f>
+      <c r="F32">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="G32" s="0" t="s">
+      <c r="G32" t="s">
         <v>315</v>
       </c>
-      <c r="H32" s="0" t="s">
+      <c r="H32" t="s">
         <v>316</v>
       </c>
-      <c r="I32" s="0" t="s">
+      <c r="I32" t="s">
         <v>301</v>
       </c>
-      <c r="J32" s="0" t="s">
+      <c r="J32" t="s">
         <v>294</v>
       </c>
-      <c r="K32" s="0" t="s">
+      <c r="K32" t="s">
         <v>14</v>
       </c>
-      <c r="L32" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M32" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N32" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O32" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P32" s="0" t="s">
+      <c r="L32">
+        <v>100</v>
+      </c>
+      <c r="M32">
+        <v>100</v>
+      </c>
+      <c r="N32">
+        <v>2</v>
+      </c>
+      <c r="O32">
+        <v>2</v>
+      </c>
+      <c r="P32" t="s">
         <v>265</v>
       </c>
-      <c r="Q32" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="R32" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="S32" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T32" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="U32" s="0" t="s">
+      <c r="Q32" t="s">
+        <v>12</v>
+      </c>
+      <c r="R32">
+        <v>1E-3</v>
+      </c>
+      <c r="S32">
+        <v>100</v>
+      </c>
+      <c r="T32">
+        <v>100</v>
+      </c>
+      <c r="U32" t="s">
         <v>317</v>
       </c>
-      <c r="V32" s="0" t="s">
+      <c r="V32" t="s">
         <v>318</v>
       </c>
-      <c r="W32" s="0" t="s">
+      <c r="W32" t="s">
         <v>319</v>
       </c>
-      <c r="X32" s="0" t="n">
+      <c r="X32">
         <v>40</v>
       </c>
-      <c r="Y32" s="0" t="n">
+      <c r="Y32">
         <v>80</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" t="s">
         <v>339</v>
       </c>
-      <c r="C33" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="0" t="n">
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33">
         <v>1</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33">
         <v>155</v>
       </c>
-      <c r="F33" s="0" t="n">
-        <f aca="false">0.5*(I33+J33)</f>
+      <c r="F33">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="G33" s="0" t="s">
+      <c r="G33" t="s">
         <v>315</v>
       </c>
-      <c r="H33" s="0" t="s">
+      <c r="H33" t="s">
         <v>316</v>
       </c>
-      <c r="I33" s="0" t="s">
+      <c r="I33" t="s">
         <v>301</v>
       </c>
-      <c r="J33" s="0" t="s">
+      <c r="J33" t="s">
         <v>294</v>
       </c>
-      <c r="K33" s="0" t="s">
+      <c r="K33" t="s">
         <v>14</v>
       </c>
-      <c r="L33" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M33" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N33" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O33" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P33" s="0" t="s">
+      <c r="L33">
+        <v>100</v>
+      </c>
+      <c r="M33">
+        <v>100</v>
+      </c>
+      <c r="N33">
+        <v>2</v>
+      </c>
+      <c r="O33">
+        <v>2</v>
+      </c>
+      <c r="P33" t="s">
         <v>265</v>
       </c>
-      <c r="Q33" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="R33" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="S33" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T33" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="U33" s="0" t="s">
+      <c r="Q33" t="s">
+        <v>12</v>
+      </c>
+      <c r="R33">
+        <v>1E-3</v>
+      </c>
+      <c r="S33">
+        <v>100</v>
+      </c>
+      <c r="T33">
+        <v>100</v>
+      </c>
+      <c r="U33" t="s">
         <v>317</v>
       </c>
-      <c r="V33" s="0" t="s">
+      <c r="V33" t="s">
         <v>318</v>
       </c>
-      <c r="W33" s="0" t="s">
+      <c r="W33" t="s">
         <v>319</v>
       </c>
-      <c r="X33" s="0" t="n">
+      <c r="X33">
         <v>40</v>
       </c>
-      <c r="Y33" s="0" t="n">
+      <c r="Y33">
         <v>80</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" t="s">
         <v>340</v>
       </c>
-      <c r="C34" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="0" t="n">
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34">
         <v>1</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34">
         <v>350</v>
       </c>
-      <c r="F34" s="0" t="n">
-        <f aca="false">0.5*(I34+J34)</f>
+      <c r="F34">
+        <f t="shared" si="0"/>
         <v>62.5</v>
       </c>
-      <c r="G34" s="0" t="s">
+      <c r="G34" t="s">
         <v>341</v>
       </c>
-      <c r="H34" s="0" t="s">
+      <c r="H34" t="s">
         <v>342</v>
       </c>
-      <c r="I34" s="0" t="s">
+      <c r="I34" t="s">
         <v>272</v>
       </c>
-      <c r="J34" s="0" t="s">
+      <c r="J34" t="s">
         <v>343</v>
       </c>
-      <c r="K34" s="0" t="s">
+      <c r="K34" t="s">
         <v>14</v>
       </c>
-      <c r="L34" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M34" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N34" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O34" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P34" s="0" t="s">
+      <c r="L34">
+        <v>100</v>
+      </c>
+      <c r="M34">
+        <v>100</v>
+      </c>
+      <c r="N34">
+        <v>2</v>
+      </c>
+      <c r="O34">
+        <v>2</v>
+      </c>
+      <c r="P34" t="s">
         <v>265</v>
       </c>
-      <c r="Q34" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="R34" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="S34" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T34" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="U34" s="0" t="s">
+      <c r="Q34" t="s">
+        <v>12</v>
+      </c>
+      <c r="R34">
+        <v>1E-3</v>
+      </c>
+      <c r="S34">
+        <v>100</v>
+      </c>
+      <c r="T34">
+        <v>100</v>
+      </c>
+      <c r="U34" t="s">
         <v>344</v>
       </c>
-      <c r="V34" s="0" t="s">
+      <c r="V34" t="s">
         <v>345</v>
       </c>
-      <c r="W34" s="0" t="s">
+      <c r="W34" t="s">
         <v>346</v>
       </c>
-      <c r="X34" s="0" t="n">
+      <c r="X34">
         <v>40</v>
       </c>
-      <c r="Y34" s="0" t="n">
+      <c r="Y34">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col min="1" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/oats/testcases/case24_ieee_rts.xlsx
+++ b/oats/testcases/case24_ieee_rts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/waqquasbukhsh/oats/oats/testcases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/waqquasbukhsh/GitHub/oats/oats/testcases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2627B3A-B7B1-8E43-8898-D0DD4C4491F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6303D4-ECC5-2848-96C6-A64D1DDF365C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25240" windowHeight="16200" tabRatio="500" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25240" windowHeight="16080" tabRatio="500" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="1" r:id="rId1"/>
@@ -26,8 +26,16 @@
     <sheet name="zone" sheetId="11" r:id="rId11"/>
     <sheet name="storage" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -2531,8 +2539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AL12"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3473,8 +3481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{985F0CD3-3E83-B141-A42F-FDCB2F81F258}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
